--- a/template_pegase_v1/gelelectrophoresis.xlsx
+++ b/template_pegase_v1/gelelectrophoresis.xlsx
@@ -14,52 +14,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
-    <t>operator</t>
+    <t>Operator</t>
   </si>
   <si>
-    <t>sampleid</t>
+    <t>SampleID</t>
   </si>
   <si>
-    <t>sampletype</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>sampleloadingamount</t>
+    <t>LaboratoryOperatingMode</t>
   </si>
   <si>
-    <t>date</t>
+    <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>buffer</t>
+    <t>CriticalProduct</t>
   </si>
   <si>
-    <t>rawdatapathway</t>
+    <t>RawDataPathway</t>
   </si>
   <si>
-    <t>criticalapparatuscriticalsoftware</t>
+    <t>Buffer</t>
   </si>
   <si>
-    <t>laddername</t>
+    <t>ElectrophoresisCondition</t>
   </si>
   <si>
-    <t>geltype</t>
+    <t>GelType</t>
   </si>
   <si>
-    <t>electrophoresiscondition</t>
+    <t>LadderName</t>
   </si>
   <si>
-    <t>criticalproduct</t>
+    <t>SampleLoadingAmount</t>
   </si>
   <si>
-    <t>laboratoryoperatingmode</t>
+    <t>SampleType</t>
   </si>
   <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#integer</t>
+    <t>#date</t>
   </si>
   <si>
-    <t>#date</t>
+    <t>#integer</t>
   </si>
 </sst>
 </file>
@@ -159,13 +159,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -186,7 +186,7 @@
         <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
         <v>13</v>

--- a/template_pegase_v1/gelelectrophoresis.xlsx
+++ b/template_pegase_v1/gelelectrophoresis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Operator</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>#integer</t>
+  </si>
+  <si>
+    <t>#Manipulateur</t>
+  </si>
+  <si>
+    <t>#Desc:IdentifiantEchantillon</t>
+  </si>
+  <si>
+    <t>#Date</t>
+  </si>
+  <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,6 +216,47 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/template_pegase_v1/gelelectrophoresis.xlsx
+++ b/template_pegase_v1/gelelectrophoresis.xlsx
@@ -14,27 +14,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>Operator</t>
   </si>
   <si>
+    <t>LaboratoryOperatingMode</t>
+  </si>
+  <si>
+    <t>CriticalApparatusCriticalSoftware</t>
+  </si>
+  <si>
+    <t>CriticalProduct</t>
+  </si>
+  <si>
+    <t>RawDataPathway</t>
+  </si>
+  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LaboratoryOperatingMode</t>
-  </si>
-  <si>
-    <t>CriticalApparatusCriticalSoftware</t>
-  </si>
-  <si>
-    <t>CriticalProduct</t>
-  </si>
-  <si>
-    <t>RawDataPathway</t>
-  </si>
-  <si>
     <t>Buffer</t>
   </si>
   <si>
@@ -53,34 +53,34 @@
     <t>SampleType</t>
   </si>
   <si>
+    <t>#date</t>
+  </si>
+  <si>
     <t>#string</t>
   </si>
   <si>
-    <t>#date</t>
-  </si>
-  <si>
     <t>#integer</t>
   </si>
   <si>
+    <t>#Date</t>
+  </si>
+  <si>
     <t>#Manipulateur</t>
   </si>
   <si>
+    <t>#ModeOderatoireLaboratoire</t>
+  </si>
+  <si>
+    <t>#AppareilLogicielCritique</t>
+  </si>
+  <si>
+    <t>#ProduitCritique</t>
+  </si>
+  <si>
+    <t>#LieuStockageDonneesBrutes</t>
+  </si>
+  <si>
     <t>#Desc:IdentifiantEchantillon</t>
-  </si>
-  <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
   </si>
   <si>
     <t/>
@@ -180,40 +180,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">

--- a/template_pegase_v1/gelelectrophoresis.xlsx
+++ b/template_pegase_v1/gelelectrophoresis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -26,7 +26,10 @@
     <t>CriticalApparatusCriticalSoftware</t>
   </si>
   <si>
-    <t>CriticalProduct</t>
+    <t>CriticalProductReference</t>
+  </si>
+  <si>
+    <t>CriticalProductLot</t>
   </si>
   <si>
     <t>RawDataPathway</t>
@@ -53,6 +56,9 @@
     <t>SampleType</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>#date</t>
   </si>
   <si>
@@ -62,28 +68,34 @@
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date</t>
-  </si>
-  <si>
-    <t>#Manipulateur</t>
-  </si>
-  <si>
-    <t>#ModeOderatoireLaboratoire</t>
-  </si>
-  <si>
-    <t>#AppareilLogicielCritique</t>
-  </si>
-  <si>
-    <t>#ProduitCritique</t>
-  </si>
-  <si>
-    <t>#LieuStockageDonneesBrutes</t>
-  </si>
-  <si>
-    <t>#Desc:IdentifiantEchantillon</t>
+    <t>#Date format jj/mm/aaa</t>
+  </si>
+  <si>
+    <t>#Manipulateur (LDAP)</t>
+  </si>
+  <si>
+    <t>#Mode Operatoire de Laboratoire (MOL)</t>
+  </si>
+  <si>
+    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes</t>
+  </si>
+  <si>
+    <t>#Identifiant de l'echantillon</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>#Commentaire</t>
   </si>
 </sst>
 </file>
@@ -128,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -174,87 +186,105 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/gelelectrophoresis.xlsx
+++ b/template_pegase_v1/gelelectrophoresis.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
-  <si>
-    <t>Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+  <si>
+    <t>AnalysisDate</t>
   </si>
   <si>
     <t>Operator</t>
   </si>
   <si>
-    <t>LaboratoryOperatingMode</t>
+    <t>LaboratoryOperatingModeCode</t>
+  </si>
+  <si>
+    <t>LaboratoryOperatingModeName</t>
   </si>
   <si>
     <t>CriticalApparatusCriticalSoftware</t>
@@ -38,6 +41,9 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Buffer</t>
   </si>
   <si>
@@ -56,7 +62,37 @@
     <t>SampleType</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t># Date de l'analyse</t>
+  </si>
+  <si>
+    <t># Manipulateur</t>
+  </si>
+  <si>
+    <t># Code Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Nom Mode Operatoire de Laboratoire</t>
+  </si>
+  <si>
+    <t># Appareil ou logiciel critique</t>
+  </si>
+  <si>
+    <t># Fournisseur et ref.  produits critiques</t>
+  </si>
+  <si>
+    <t># Numéro de lot produits critiques</t>
+  </si>
+  <si>
+    <t># Lieu de stockage des donnees brutes.</t>
+  </si>
+  <si>
+    <t># Identifiant de l'echantillon</t>
+  </si>
+  <si>
+    <t># Commentaire</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>#date</t>
@@ -68,34 +104,61 @@
     <t>#integer</t>
   </si>
   <si>
-    <t>#Date format jj/mm/aaa</t>
-  </si>
-  <si>
-    <t>#Manipulateur (LDAP)</t>
-  </si>
-  <si>
-    <t>#Mode Operatoire de Laboratoire (MOL)</t>
-  </si>
-  <si>
-    <t>#Appareil ou logiciel critique (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#Fournisseur et ref. produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t>#FNumero de lot produits critiques (si plusieurs utiliser des ';')</t>
-  </si>
-  <si>
-    <t># Lieu de stockage des donnees brutes</t>
-  </si>
-  <si>
-    <t>#Identifiant de l'echantillon</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>#Commentaire</t>
+    <t># format:  jj/mm/aaa</t>
+  </si>
+  <si>
+    <t># format: texte, identifiant LDAP</t>
+  </si>
+  <si>
+    <t># format: texte, MO-LAB-XXX, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs MO-LAB utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs appareils/logiciels utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer</t>
+  </si>
+  <si>
+    <t># format: texte, si plusieurs produits utiliser des ';' pour les séparer. Conserver le même ordre que dans la colonne Référence des produits.</t>
+  </si>
+  <si>
+    <t># format: texte</t>
+  </si>
+  <si>
+    <t># format: texte, à définir....</t>
+  </si>
+  <si>
+    <t># format: texte libre</t>
+  </si>
+  <si>
+    <t># ex: 12/06/2019</t>
+  </si>
+  <si>
+    <t># ex: fherault</t>
+  </si>
+  <si>
+    <t># ex:  MO-LAB-029 ou MO-LAB-NA si pas de code</t>
+  </si>
+  <si>
+    <t># ex: Dosage du Glutathion dans les tissus</t>
+  </si>
+  <si>
+    <t># ex: Konélab20; appareil2; appareil3</t>
+  </si>
+  <si>
+    <t># ex: THERMO 981304;sCal 981831;Nortrol 981043;Abtrol 981044</t>
+  </si>
+  <si>
+    <t># ex : S415;G716;H342;H654</t>
+  </si>
+  <si>
+    <t># ex: //Konelab37/results/</t>
+  </si>
+  <si>
+    <t># ex: ....</t>
   </si>
 </sst>
 </file>
@@ -140,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,99 +255,208 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/template_pegase_v1/gelelectrophoresis.xlsx
+++ b/template_pegase_v1/gelelectrophoresis.xlsx
@@ -41,27 +41,27 @@
     <t>SampleID</t>
   </si>
   <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>ElectrophoresisCondition</t>
+  </si>
+  <si>
+    <t>GelType</t>
+  </si>
+  <si>
+    <t>LadderName</t>
+  </si>
+  <si>
+    <t>SampleLoadingAmount</t>
+  </si>
+  <si>
+    <t>SampleType</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Buffer</t>
-  </si>
-  <si>
-    <t>ElectrophoresisCondition</t>
-  </si>
-  <si>
-    <t>GelType</t>
-  </si>
-  <si>
-    <t>LadderName</t>
-  </si>
-  <si>
-    <t>SampleLoadingAmount</t>
-  </si>
-  <si>
-    <t>SampleType</t>
-  </si>
-  <si>
     <t># Date de l'analyse</t>
   </si>
   <si>
@@ -89,10 +89,10 @@
     <t># Identifiant de l'echantillon</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t># Commentaire</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>#date</t>
@@ -291,19 +291,19 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
@@ -350,10 +350,10 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
         <v>28</v>
@@ -388,25 +388,25 @@
         <v>38</v>
       </c>
       <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
         <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -438,25 +438,25 @@
         <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
